--- a/Examples/Templates/plant_model.xlsx
+++ b/Examples/Templates/plant_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5FD6D2-1903-4C2A-A178-6F97BF4D1B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5599042-B601-4179-ADD6-A4C1A001479D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="375" windowWidth="17295" windowHeight="12525" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="WasteAllocation" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$5</definedName>
+    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$8</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$6</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$7</definedName>
     <definedName name="tgas_c0" localSheetId="6">ResourcesCost!$A$1:$B$2</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>key</t>
   </si>
@@ -215,9 +215,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>CMB</t>
-  </si>
-  <si>
     <t>WN</t>
   </si>
   <si>
@@ -239,15 +236,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>PR2</t>
-  </si>
-  <si>
-    <t>Process2</t>
-  </si>
-  <si>
-    <t>Process1</t>
-  </si>
-  <si>
     <t>State1</t>
   </si>
   <si>
@@ -255,6 +243,33 @@
   </si>
   <si>
     <t>State3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>PRC2</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>Process 1</t>
+  </si>
+  <si>
+    <t>Process 2</t>
+  </si>
+  <si>
+    <t>Disipative Process</t>
+  </si>
+  <si>
+    <t>B2-B3</t>
   </si>
 </sst>
 </file>
@@ -276,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,12 +307,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,12 +329,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,16 +741,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -806,16 +822,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,40 +844,58 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -868,7 +903,7 @@
           <x14:formula1>
             <xm:f>Validate!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B5</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -879,10 +914,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +926,7 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -901,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -909,33 +944,63 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -944,7 +1009,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E3</xm:sqref>
+          <xm:sqref>B2:B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -955,10 +1020,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,38 +1035,129 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="str">
+        <f>Flows!A2</f>
+        <v>R1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4">
+        <v>105</v>
+      </c>
+      <c r="E2" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="str">
+        <f>Flows!A3</f>
+        <v>B1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4">
+        <v>71</v>
+      </c>
+      <c r="D3" s="4">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="str">
+        <f>Flows!A4</f>
+        <v>B2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Flows!A2</f>
-        <v>B1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Flows!A3</f>
-        <v>R1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Flows!A4</f>
+      <c r="E4" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
+        <f>Flows!A5</f>
+        <v>B3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="str">
+        <f>Flows!A6</f>
         <v>WN</v>
       </c>
+      <c r="B6" s="4">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="str">
+        <f>Flows!A7</f>
+        <v>Q1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1012,7 +1168,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,104 +1177,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1126,13 +1283,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1141,27 +1301,61 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="5" t="str">
+        <f>Flows!A2</f>
+        <v>R1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C2" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="5" t="str">
+        <f>Processes!A2</f>
+        <v>PRC1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="C3" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="str">
+        <f>Processes!A3</f>
+        <v>PRC2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
+        <f>Processes!A4</f>
+        <v>PD1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1170,7 +1364,7 @@
           <x14:formula1>
             <xm:f>Validate!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1184,7 +1378,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,17 +1399,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="1">
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>0</formula1>
@@ -1241,28 +1436,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60EB8C5-1C2D-45A7-AF02-11D3821F8264}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="B2" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>